--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.382</v>
+        <v>16.316</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.434</v>
+        <v>-7.198</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.798</v>
+        <v>5.859</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.168000000000001</v>
+        <v>-7.269</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.673999999999999</v>
+        <v>-7.505</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.036</v>
+        <v>16.158</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.694000000000001</v>
+        <v>5.166</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.138</v>
+        <v>6.978</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.5</v>
+        <v>-7.633</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>7.202</v>
+        <v>6.2</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.139999999999999</v>
+        <v>-8.149000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.574</v>
+        <v>-7.348999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.132</v>
+        <v>17.079</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.532</v>
+        <v>8.170999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.384</v>
+        <v>16.461</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8</v>
+        <v>-7.822</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.644000000000001</v>
+        <v>-7.228</v>
       </c>
       <c r="E38" t="n">
-        <v>16.474</v>
+        <v>16.739</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.218</v>
+        <v>17.127</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.004</v>
+        <v>17.04199999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.56</v>
+        <v>16.459</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.668000000000001</v>
+        <v>-8.401</v>
       </c>
       <c r="E51" t="n">
-        <v>16.83</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.9</v>
+        <v>-7.831</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.017999999999999</v>
+        <v>-8.129000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.51</v>
+        <v>16.471</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.601</v>
       </c>
     </row>
     <row r="64">
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.223999999999999</v>
+        <v>5.992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.326000000000001</v>
+        <v>-7.113000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.928</v>
+        <v>-7.176</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>17.792</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.308</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.321999999999999</v>
+        <v>8.550999999999998</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.084000000000001</v>
+        <v>-7.505000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.018000000000001</v>
+        <v>5.366000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.906000000000001</v>
+        <v>5.129</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.156000000000001</v>
+        <v>-8.516999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.328</v>
+        <v>16.385</v>
       </c>
     </row>
     <row r="89">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.877999999999999</v>
+        <v>6.209</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.658</v>
+        <v>16.768</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.76</v>
+        <v>-7.865</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
